--- a/gdp_revisions_analysis/output/tables/base_year_benchmark/unbiassdness_r_m.xlsx
+++ b/gdp_revisions_analysis/output/tables/base_year_benchmark/unbiassdness_r_m.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/base_year_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{5A90099F-BCB1-46ED-A3A2-8AB3518B914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EAE32C5-B7A6-4E60-9621-A06FF80891D0}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{5A90099F-BCB1-46ED-A3A2-8AB3518B914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7B2B697-E7A1-40BE-B6DA-3F5F8C0097EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
@@ -36,21 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="50">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>0.086***</t>
-  </si>
-  <si>
-    <t>0.047*</t>
-  </si>
-  <si>
-    <t>0.061***</t>
-  </si>
-  <si>
-    <t>0.102**</t>
   </si>
   <si>
     <t>Media</t>
@@ -83,28 +71,7 @@
     <t>Otros Servicios</t>
   </si>
   <si>
-    <t>0.059***</t>
-  </si>
-  <si>
-    <t>0.028**</t>
-  </si>
-  <si>
-    <t>0.156***</t>
-  </si>
-  <si>
-    <t>0.192***</t>
-  </si>
-  <si>
-    <t>0.107***</t>
-  </si>
-  <si>
     <t>0.080***</t>
-  </si>
-  <si>
-    <t>0.066***</t>
-  </si>
-  <si>
-    <t>0.045*</t>
   </si>
   <si>
     <t>0.036**</t>
@@ -113,58 +80,10 @@
     <t>-0.100*</t>
   </si>
   <si>
-    <t>0.667**</t>
-  </si>
-  <si>
-    <t>0.502**</t>
-  </si>
-  <si>
-    <t>0.212***</t>
-  </si>
-  <si>
-    <t>0.142***</t>
-  </si>
-  <si>
-    <t>0.053*</t>
-  </si>
-  <si>
-    <t>0.051**</t>
-  </si>
-  <si>
-    <t>0.129***</t>
-  </si>
-  <si>
-    <t>0.077***</t>
-  </si>
-  <si>
-    <t>0.062**</t>
-  </si>
-  <si>
-    <t>0.067***</t>
-  </si>
-  <si>
-    <t>0.039**</t>
-  </si>
-  <si>
-    <t>-0.038**</t>
-  </si>
-  <si>
-    <t>0.034**</t>
-  </si>
-  <si>
-    <t>0.033**</t>
-  </si>
-  <si>
-    <t>0.107**</t>
-  </si>
-  <si>
     <t>0.152***</t>
   </si>
   <si>
     <t>0.040*</t>
-  </si>
-  <si>
-    <t>0.058***</t>
   </si>
   <si>
     <t>0.034*</t>
@@ -183,6 +102,90 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>0.068***</t>
+  </si>
+  <si>
+    <t>0.056***</t>
+  </si>
+  <si>
+    <t>0.026*</t>
+  </si>
+  <si>
+    <t>0.161***</t>
+  </si>
+  <si>
+    <t>0.183***</t>
+  </si>
+  <si>
+    <t>0.112***</t>
+  </si>
+  <si>
+    <t>0.083***</t>
+  </si>
+  <si>
+    <t>0.064***</t>
+  </si>
+  <si>
+    <t>0.046**</t>
+  </si>
+  <si>
+    <t>0.788***</t>
+  </si>
+  <si>
+    <t>0.406*</t>
+  </si>
+  <si>
+    <t>0.051*</t>
+  </si>
+  <si>
+    <t>0.060**</t>
+  </si>
+  <si>
+    <t>0.071***</t>
+  </si>
+  <si>
+    <t>0.030*</t>
+  </si>
+  <si>
+    <t>0.038**</t>
+  </si>
+  <si>
+    <t>0.041*</t>
+  </si>
+  <si>
+    <t>0.091**</t>
+  </si>
+  <si>
+    <t>0.055*</t>
+  </si>
+  <si>
+    <t>-0.034**</t>
+  </si>
+  <si>
+    <t>0.059**</t>
+  </si>
+  <si>
+    <t>0.029**</t>
+  </si>
+  <si>
+    <t>0.110**</t>
+  </si>
+  <si>
+    <t>0.096**</t>
+  </si>
+  <si>
+    <t>0.149***</t>
+  </si>
+  <si>
+    <t>0.038*</t>
+  </si>
+  <si>
+    <t>0.055***</t>
+  </si>
+  <si>
+    <t>0.027**</t>
   </si>
 </sst>
 </file>
@@ -459,43 +462,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.35499999999999998</c:v>
+                  <c:v>0.376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35299999999999998</c:v>
+                  <c:v>0.41299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32300000000000001</c:v>
+                  <c:v>0.34200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.29799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24099999999999999</c:v>
+                  <c:v>0.38200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23400000000000001</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17699999999999999</c:v>
+                  <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17100000000000001</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27400000000000002</c:v>
+                  <c:v>0.29599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.24299999999999999</c:v>
@@ -855,43 +858,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.90800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.85599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57199999999999995</c:v>
+                  <c:v>0.57799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54600000000000004</c:v>
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.501</c:v>
+                  <c:v>0.51400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.433</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36699999999999999</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33900000000000002</c:v>
+                  <c:v>0.376</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26900000000000002</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>0.38300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.14199999999999999</c:v>
@@ -1251,43 +1254,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.113</c:v>
+                  <c:v>3.1560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.798</c:v>
+                  <c:v>11.943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1639999999999997</c:v>
+                  <c:v>5.351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4290000000000003</c:v>
+                  <c:v>5.4379999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1949999999999998</c:v>
+                  <c:v>3.9340000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1210000000000004</c:v>
+                  <c:v>4.6239999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3579999999999997</c:v>
+                  <c:v>4.5759999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7959999999999998</c:v>
+                  <c:v>2.8639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2799999999999998</c:v>
+                  <c:v>2.7770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.052</c:v>
+                  <c:v>2.0449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.153</c:v>
+                  <c:v>3.069</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2160000000000002</c:v>
+                  <c:v>3.6890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.93</c:v>
+                  <c:v>1.9139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4.3680000000000003</c:v>
@@ -1647,43 +1650,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.751</c:v>
+                  <c:v>0.76200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56899999999999995</c:v>
+                  <c:v>0.56699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47699999999999998</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.371</c:v>
+                  <c:v>0.47399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>0.42299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33500000000000002</c:v>
+                  <c:v>0.36699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.378</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30599999999999999</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26</c:v>
+                  <c:v>0.25900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28599999999999998</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.40100000000000002</c:v>
+                  <c:v>0.41199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.126</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.22500000000000001</c:v>
@@ -2043,43 +2046,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.58699999999999997</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46300000000000002</c:v>
+                  <c:v>0.59099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67300000000000004</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41099999999999998</c:v>
+                  <c:v>0.77700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.42299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28299999999999997</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.39100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23400000000000001</c:v>
+                  <c:v>0.28199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40500000000000003</c:v>
+                  <c:v>0.68200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39700000000000002</c:v>
+                  <c:v>0.53300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41699999999999998</c:v>
+                  <c:v>0.41399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.70599999999999996</c:v>
@@ -2421,40 +2424,40 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32800000000000001</c:v>
+                  <c:v>0.32700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59799999999999998</c:v>
+                  <c:v>0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61</c:v>
+                  <c:v>0.60399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.107</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2000000000000001E-2</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.317</c:v>
+                  <c:v>0.309</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9.5000000000000001E-2</c:v>
@@ -2799,43 +2802,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.628</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.378</c:v>
+                  <c:v>0.41599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45400000000000001</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45800000000000002</c:v>
+                  <c:v>0.56200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29699999999999999</c:v>
+                  <c:v>0.54800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.29299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.27900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97499999999999998</c:v>
+                  <c:v>0.98499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0.873</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.499</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.505</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.151</c:v>
+                  <c:v>0.14899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.69399999999999995</c:v>
@@ -3195,43 +3198,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.86399999999999999</c:v>
+                  <c:v>0.86499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.77300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81899999999999995</c:v>
+                  <c:v>0.81399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75600000000000001</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39100000000000001</c:v>
+                  <c:v>0.64300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35199999999999998</c:v>
+                  <c:v>0.42399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33300000000000002</c:v>
+                  <c:v>0.39700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38900000000000001</c:v>
+                  <c:v>0.40699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41899999999999998</c:v>
+                  <c:v>0.40899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42399999999999999</c:v>
+                  <c:v>0.496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.443</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.371</c:v>
+                  <c:v>0.38200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13800000000000001</c:v>
+                  <c:v>0.13700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.215</c:v>
@@ -3582,43 +3585,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.312</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.247</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.28899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39800000000000002</c:v>
+                  <c:v>0.39100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.182</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.14099999999999999</c:v>
@@ -9471,8 +9474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496513D8-45F4-412F-B325-A911B1FC58A0}">
   <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9488,22 +9491,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -9511,7 +9514,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9524,19 +9527,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4">
         <v>-0.9</v>
       </c>
       <c r="E3" s="4">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F3" s="4">
-        <v>0.35499999999999998</v>
+        <v>0.376</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -9547,19 +9550,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="E4" s="2">
         <v>1.3</v>
       </c>
       <c r="F4" s="2">
-        <v>0.35299999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -9570,19 +9573,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="E5" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>0.32300000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -9593,10 +9596,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>364</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>372</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>-0.9</v>
@@ -9605,7 +9608,7 @@
         <v>0.9</v>
       </c>
       <c r="F6" s="2">
-        <v>0.3</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -9616,19 +9619,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>361</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>371</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.6E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.8</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0.24099999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -9639,19 +9642,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>358</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>370</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -9662,19 +9665,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C9" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -9685,19 +9688,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C10" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="E10" s="2">
         <v>0.6</v>
       </c>
       <c r="F10" s="2">
-        <v>0.17699999999999999</v>
+        <v>0.184</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -9708,10 +9711,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C11" s="2">
-        <v>-1E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D11" s="2">
         <v>-0.7</v>
@@ -9720,7 +9723,7 @@
         <v>0.7</v>
       </c>
       <c r="F11" s="2">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -9731,7 +9734,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C12" s="2">
         <v>5.0000000000000001E-3</v>
@@ -9743,7 +9746,7 @@
         <v>0.4</v>
       </c>
       <c r="F12" s="2">
-        <v>0.17100000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -9754,19 +9757,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C13" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="E13" s="2">
         <v>0.6</v>
       </c>
       <c r="F13" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -9777,19 +9780,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C14" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="E14" s="2">
         <v>0.5</v>
       </c>
       <c r="F14" s="2">
-        <v>0.16200000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -9800,7 +9803,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2">
         <v>-2.5000000000000001E-2</v>
@@ -9812,7 +9815,7 @@
         <v>0.2</v>
       </c>
       <c r="F15" s="2">
-        <v>0.11799999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -9958,7 +9961,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -9971,10 +9974,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C23" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D23" s="2">
         <v>-5.0999999999999996</v>
@@ -9983,7 +9986,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F23" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -9994,10 +9997,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
         <v>-2.5</v>
@@ -10006,7 +10009,7 @@
         <v>2.5</v>
       </c>
       <c r="F24" s="2">
-        <v>0.85</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -10017,19 +10020,19 @@
         <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="E25" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="F25" s="2">
-        <v>0.57199999999999995</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -10040,19 +10043,19 @@
         <v>5</v>
       </c>
       <c r="B26" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>-1.2</v>
       </c>
       <c r="E26" s="2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F26" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -10063,10 +10066,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>-1.1000000000000001</v>
@@ -10075,7 +10078,7 @@
         <v>2.6</v>
       </c>
       <c r="F27" s="2">
-        <v>0.501</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -10086,10 +10089,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>-1.5</v>
@@ -10098,7 +10101,7 @@
         <v>1.8</v>
       </c>
       <c r="F28" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>0</v>
@@ -10109,10 +10112,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C29" s="2">
-        <v>3.1E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D29" s="2">
         <v>-1.2</v>
@@ -10121,7 +10124,7 @@
         <v>1.8</v>
       </c>
       <c r="F29" s="2">
-        <v>0.48099999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
@@ -10132,10 +10135,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2">
         <v>-1.3</v>
@@ -10144,7 +10147,7 @@
         <v>1.5</v>
       </c>
       <c r="F30" s="2">
-        <v>0.433</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
@@ -10155,19 +10158,19 @@
         <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>349</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>367</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D31" s="2">
-        <v>-0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="E31" s="2">
         <v>1.4</v>
       </c>
       <c r="F31" s="2">
-        <v>0.30199999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
@@ -10178,10 +10181,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C32" s="2">
-        <v>1.6E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D32" s="2">
         <v>-1.4</v>
@@ -10190,7 +10193,7 @@
         <v>1.2</v>
       </c>
       <c r="F32" s="2">
-        <v>0.36699999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -10201,19 +10204,19 @@
         <v>12</v>
       </c>
       <c r="B33" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>-0.6</v>
       </c>
       <c r="E33" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>0.33900000000000002</v>
+        <v>0.376</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -10224,19 +10227,19 @@
         <v>13</v>
       </c>
       <c r="B34" s="1">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C34" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="E34" s="2">
         <v>0.7</v>
       </c>
       <c r="F34" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
@@ -10247,7 +10250,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2">
         <v>0.01</v>
@@ -10259,7 +10262,7 @@
         <v>1.5</v>
       </c>
       <c r="F35" s="2">
-        <v>0.38600000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>0</v>
@@ -10296,7 +10299,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2">
         <v>-1</v>
@@ -10405,7 +10408,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -10418,19 +10421,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2">
-        <v>0.11</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D43" s="2">
         <v>-4.8</v>
       </c>
       <c r="E43" s="2">
-        <v>8.1</v>
+        <v>10.6</v>
       </c>
       <c r="F43" s="2">
-        <v>3.113</v>
+        <v>3.1560000000000001</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -10441,19 +10444,19 @@
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2">
-        <v>0.219</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D44" s="2">
-        <v>-10.5</v>
+        <v>-11.4</v>
       </c>
       <c r="E44" s="2">
-        <v>9.8000000000000007</v>
+        <v>11.3</v>
       </c>
       <c r="F44" s="2">
-        <v>3.798</v>
+        <v>11.943</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>0</v>
@@ -10464,19 +10467,19 @@
         <v>4</v>
       </c>
       <c r="B45" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>-8.9</v>
       </c>
       <c r="E45" s="2">
-        <v>19.399999999999999</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F45" s="2">
-        <v>5.1639999999999997</v>
+        <v>5.351</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>0</v>
@@ -10487,10 +10490,10 @@
         <v>5</v>
       </c>
       <c r="B46" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2">
-        <v>0.39</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D46" s="2">
         <v>-16.8</v>
@@ -10499,7 +10502,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="F46" s="2">
-        <v>5.4290000000000003</v>
+        <v>5.4379999999999997</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>0</v>
@@ -10510,19 +10513,19 @@
         <v>6</v>
       </c>
       <c r="B47" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D47" s="2">
-        <v>-11.6</v>
+        <v>-12.5</v>
       </c>
       <c r="E47" s="2">
-        <v>8.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F47" s="2">
-        <v>3.1949999999999998</v>
+        <v>3.9340000000000002</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
@@ -10533,19 +10536,19 @@
         <v>7</v>
       </c>
       <c r="B48" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.186</v>
+        <v>-0.32600000000000001</v>
       </c>
       <c r="D48" s="2">
-        <v>-8.4</v>
+        <v>-15.4</v>
       </c>
       <c r="E48" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="F48" s="2">
-        <v>4.1210000000000004</v>
+        <v>4.6239999999999997</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
@@ -10556,19 +10559,19 @@
         <v>8</v>
       </c>
       <c r="B49" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="E49" s="2">
         <v>7.2</v>
       </c>
       <c r="F49" s="2">
-        <v>4.3579999999999997</v>
+        <v>4.5759999999999996</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -10579,19 +10582,19 @@
         <v>9</v>
       </c>
       <c r="B50" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="D50" s="2">
-        <v>-9</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="E50" s="2">
         <v>5.8</v>
       </c>
       <c r="F50" s="2">
-        <v>2.7959999999999998</v>
+        <v>2.8639999999999999</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
@@ -10602,19 +10605,19 @@
         <v>10</v>
       </c>
       <c r="B51" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2">
-        <v>-1.6E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D51" s="2">
-        <v>-10.6</v>
+        <v>-10.9</v>
       </c>
       <c r="E51" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="F51" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
@@ -10625,19 +10628,19 @@
         <v>11</v>
       </c>
       <c r="B52" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D52" s="2">
         <v>-9.6</v>
       </c>
       <c r="E52" s="2">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="F52" s="2">
-        <v>2.052</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>0</v>
@@ -10648,19 +10651,19 @@
         <v>12</v>
       </c>
       <c r="B53" s="1">
-        <v>343</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>365</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D53" s="2">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="E53" s="2">
         <v>6.5</v>
       </c>
       <c r="F53" s="2">
-        <v>1.153</v>
+        <v>3.069</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>0</v>
@@ -10671,19 +10674,19 @@
         <v>13</v>
       </c>
       <c r="B54" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2">
-        <v>-0.122</v>
+        <v>-0.246</v>
       </c>
       <c r="D54" s="2">
-        <v>-5</v>
+        <v>-15.5</v>
       </c>
       <c r="E54" s="2">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F54" s="2">
-        <v>2.2160000000000002</v>
+        <v>3.6890000000000001</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>0</v>
@@ -10694,10 +10697,10 @@
         <v>14</v>
       </c>
       <c r="B55" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2">
-        <v>-0.314</v>
+        <v>-0.31</v>
       </c>
       <c r="D55" s="2">
         <v>-13.1</v>
@@ -10706,7 +10709,7 @@
         <v>3.5</v>
       </c>
       <c r="F55" s="2">
-        <v>1.93</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>0</v>
@@ -10852,7 +10855,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -10865,10 +10868,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2">
         <v>-1.3</v>
@@ -10877,7 +10880,7 @@
         <v>3.3</v>
       </c>
       <c r="F63" s="2">
-        <v>0.751</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>0</v>
@@ -10888,10 +10891,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>-1.4</v>
@@ -10900,7 +10903,7 @@
         <v>2.1</v>
       </c>
       <c r="F64" s="2">
-        <v>0.56899999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>0</v>
@@ -10911,19 +10914,19 @@
         <v>4</v>
       </c>
       <c r="B65" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>-0.9</v>
       </c>
       <c r="E65" s="2">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F65" s="2">
-        <v>0.47699999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>0</v>
@@ -10934,19 +10937,19 @@
         <v>5</v>
       </c>
       <c r="B66" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C66" s="2">
-        <v>2E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D66" s="2">
         <v>-1.6</v>
       </c>
       <c r="E66" s="2">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="F66" s="2">
-        <v>0.371</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>0</v>
@@ -10957,19 +10960,19 @@
         <v>6</v>
       </c>
       <c r="B67" s="1">
-        <v>361</v>
-      </c>
-      <c r="C67" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>371</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>-0.8</v>
       </c>
       <c r="E67" s="2">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F67" s="2">
-        <v>0.40600000000000003</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>0</v>
@@ -10980,19 +10983,19 @@
         <v>7</v>
       </c>
       <c r="B68" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>-0.3</v>
       </c>
       <c r="E68" s="2">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F68" s="2">
-        <v>0.33500000000000002</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>0</v>
@@ -11003,19 +11006,19 @@
         <v>8</v>
       </c>
       <c r="B69" s="1">
-        <v>355</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1.2E-2</v>
+        <v>369</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D69" s="2">
         <v>-0.3</v>
       </c>
       <c r="E69" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F69" s="2">
-        <v>0.16500000000000001</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>0</v>
@@ -11026,19 +11029,19 @@
         <v>9</v>
       </c>
       <c r="B70" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C70" s="2">
-        <v>0.02</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D70" s="2">
         <v>-0.6</v>
       </c>
       <c r="E70" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F70" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>0</v>
@@ -11049,19 +11052,19 @@
         <v>10</v>
       </c>
       <c r="B71" s="1">
-        <v>349</v>
-      </c>
-      <c r="C71" s="2">
-        <v>2.4E-2</v>
+        <v>367</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D71" s="2">
         <v>-0.6</v>
       </c>
       <c r="E71" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F71" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>0</v>
@@ -11072,19 +11075,19 @@
         <v>11</v>
       </c>
       <c r="B72" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C72" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D72" s="2">
         <v>-0.8</v>
       </c>
       <c r="E72" s="2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F72" s="2">
-        <v>0.26</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>0</v>
@@ -11095,19 +11098,19 @@
         <v>12</v>
       </c>
       <c r="B73" s="1">
-        <v>343</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0.02</v>
+        <v>365</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D73" s="2">
         <v>-0.6</v>
       </c>
       <c r="E73" s="2">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="F73" s="2">
-        <v>0.28599999999999998</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>0</v>
@@ -11118,19 +11121,19 @@
         <v>13</v>
       </c>
       <c r="B74" s="1">
-        <v>324</v>
-      </c>
-      <c r="C74" s="2">
-        <v>3.1E-2</v>
+        <v>348</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D74" s="2">
         <v>-0.3</v>
       </c>
       <c r="E74" s="2">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="F74" s="2">
-        <v>0.40100000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>0</v>
@@ -11141,7 +11144,7 @@
         <v>14</v>
       </c>
       <c r="B75" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2">
         <v>-1.2E-2</v>
@@ -11153,7 +11156,7 @@
         <v>0.2</v>
       </c>
       <c r="F75" s="2">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>0</v>
@@ -11299,7 +11302,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -11312,10 +11315,10 @@
         <v>2</v>
       </c>
       <c r="B83" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2">
         <v>-0.9</v>
@@ -11324,7 +11327,7 @@
         <v>3.5</v>
       </c>
       <c r="F83" s="2">
-        <v>0.58699999999999997</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>0</v>
@@ -11335,19 +11338,19 @@
         <v>3</v>
       </c>
       <c r="B84" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D84" s="2">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="E84" s="2">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F84" s="2">
-        <v>0.44500000000000001</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>0</v>
@@ -11358,19 +11361,19 @@
         <v>4</v>
       </c>
       <c r="B85" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D85" s="2">
-        <v>-1.4</v>
+        <v>-2.1</v>
       </c>
       <c r="E85" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="F85" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>0</v>
@@ -11381,19 +11384,19 @@
         <v>5</v>
       </c>
       <c r="B86" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C86" s="2">
-        <v>-0.02</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="D86" s="2">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="E86" s="2">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="F86" s="2">
-        <v>0.67300000000000004</v>
+        <v>0.748</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>0</v>
@@ -11404,19 +11407,19 @@
         <v>6</v>
       </c>
       <c r="B87" s="1">
-        <v>361</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>34</v>
+        <v>371</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D87" s="2">
         <v>-0.7</v>
       </c>
       <c r="E87" s="2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F87" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>0</v>
@@ -11427,19 +11430,19 @@
         <v>7</v>
       </c>
       <c r="B88" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C88" s="2">
-        <v>2.5999999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D88" s="2">
-        <v>-1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E88" s="2">
         <v>1.7</v>
       </c>
       <c r="F88" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>0</v>
@@ -11450,19 +11453,19 @@
         <v>8</v>
       </c>
       <c r="B89" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C89" s="2">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D89" s="2">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E89" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F89" s="2">
-        <v>0.28599999999999998</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>0</v>
@@ -11473,19 +11476,19 @@
         <v>9</v>
       </c>
       <c r="B90" s="1">
-        <v>352</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>35</v>
+        <v>368</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D90" s="2">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="E90" s="2">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F90" s="2">
-        <v>0.28299999999999997</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>0</v>
@@ -11496,19 +11499,19 @@
         <v>10</v>
       </c>
       <c r="B91" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C91" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D91" s="2">
-        <v>-0.5</v>
+        <v>-1.4</v>
       </c>
       <c r="E91" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="F91" s="2">
-        <v>0.34300000000000003</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>0</v>
@@ -11519,19 +11522,19 @@
         <v>11</v>
       </c>
       <c r="B92" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C92" s="2">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D92" s="2">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="E92" s="2">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F92" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>0</v>
@@ -11542,19 +11545,19 @@
         <v>12</v>
       </c>
       <c r="B93" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C93" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="D93" s="2">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="E93" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F93" s="2">
-        <v>0.40500000000000003</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>0</v>
@@ -11565,10 +11568,10 @@
         <v>13</v>
       </c>
       <c r="B94" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C94" s="2">
-        <v>-2.3E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="D94" s="2">
         <v>-1</v>
@@ -11577,7 +11580,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F94" s="2">
-        <v>0.39700000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>0</v>
@@ -11588,10 +11591,10 @@
         <v>14</v>
       </c>
       <c r="B95" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2">
-        <v>-7.5999999999999998E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="D95" s="2">
         <v>-1.8</v>
@@ -11600,7 +11603,7 @@
         <v>1.6</v>
       </c>
       <c r="F95" s="2">
-        <v>0.41699999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>0</v>
@@ -11746,7 +11749,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -11759,19 +11762,19 @@
         <v>2</v>
       </c>
       <c r="B103" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D103" s="2">
         <v>-1.3</v>
       </c>
       <c r="E103" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F103" s="2">
-        <v>0.26100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>0</v>
@@ -11782,10 +11785,10 @@
         <v>3</v>
       </c>
       <c r="B104" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C104" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D104" s="2">
         <v>-0.7</v>
@@ -11794,7 +11797,7 @@
         <v>0.7</v>
       </c>
       <c r="F104" s="2">
-        <v>0.32800000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>0</v>
@@ -11805,10 +11808,10 @@
         <v>4</v>
       </c>
       <c r="B105" s="1">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C105" s="2">
-        <v>-1.2999999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="D105" s="2">
         <v>-0.8</v>
@@ -11817,7 +11820,7 @@
         <v>0.5</v>
       </c>
       <c r="F105" s="2">
-        <v>0.26600000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>0</v>
@@ -11828,10 +11831,10 @@
         <v>5</v>
       </c>
       <c r="B106" s="1">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C106" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D106" s="2">
         <v>-0.2</v>
@@ -11840,7 +11843,7 @@
         <v>0.6</v>
       </c>
       <c r="F106" s="2">
-        <v>0.59799999999999998</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>0</v>
@@ -11851,7 +11854,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="1">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C107" s="2">
         <v>-3.4000000000000002E-2</v>
@@ -11863,7 +11866,7 @@
         <v>0.6</v>
       </c>
       <c r="F107" s="2">
-        <v>0.61</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>0</v>
@@ -11874,19 +11877,19 @@
         <v>7</v>
       </c>
       <c r="B108" s="1">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C108" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D108" s="2">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E108" s="2">
         <v>0.4</v>
       </c>
       <c r="F108" s="2">
-        <v>0.16200000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>0</v>
@@ -11897,7 +11900,7 @@
         <v>8</v>
       </c>
       <c r="B109" s="1">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C109" s="2">
         <v>4.0000000000000001E-3</v>
@@ -11909,7 +11912,7 @@
         <v>0.2</v>
       </c>
       <c r="F109" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>0</v>
@@ -11920,7 +11923,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="1">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C110" s="2">
         <v>-5.0000000000000001E-3</v>
@@ -11932,7 +11935,7 @@
         <v>0.2</v>
       </c>
       <c r="F110" s="2">
-        <v>0.107</v>
+        <v>0.105</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>0</v>
@@ -11943,13 +11946,13 @@
         <v>10</v>
       </c>
       <c r="B111" s="1">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C111" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D111" s="2">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="E111" s="2">
         <v>0.2</v>
@@ -11966,10 +11969,10 @@
         <v>11</v>
       </c>
       <c r="B112" s="1">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C112" s="2">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D112" s="2">
         <v>-0.1</v>
@@ -11978,7 +11981,7 @@
         <v>0.1</v>
       </c>
       <c r="F112" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>0</v>
@@ -11989,7 +11992,7 @@
         <v>12</v>
       </c>
       <c r="B113" s="1">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C113" s="2">
         <v>2E-3</v>
@@ -12012,10 +12015,10 @@
         <v>13</v>
       </c>
       <c r="B114" s="1">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C114" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D114" s="2">
         <v>-0.1</v>
@@ -12024,7 +12027,7 @@
         <v>0.3</v>
       </c>
       <c r="F114" s="2">
-        <v>0.317</v>
+        <v>0.309</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>0</v>
@@ -12055,7 +12058,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -12068,10 +12071,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C117" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D117" s="2">
         <v>-1.7</v>
@@ -12080,7 +12083,7 @@
         <v>1.8</v>
       </c>
       <c r="F117" s="2">
-        <v>0.628</v>
+        <v>0.627</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>0</v>
@@ -12091,19 +12094,19 @@
         <v>3</v>
       </c>
       <c r="B118" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C118" s="2">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D118" s="2">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>
       </c>
       <c r="F118" s="2">
-        <v>0.71499999999999997</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>0</v>
@@ -12114,19 +12117,19 @@
         <v>4</v>
       </c>
       <c r="B119" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C119" s="2">
-        <v>3.1E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D119" s="2">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="E119" s="2">
         <v>1.9</v>
       </c>
       <c r="F119" s="2">
-        <v>0.378</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>0</v>
@@ -12137,19 +12140,19 @@
         <v>5</v>
       </c>
       <c r="B120" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C120" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D120" s="2">
-        <v>-0.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E120" s="2">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F120" s="2">
-        <v>0.45400000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>0</v>
@@ -12160,19 +12163,19 @@
         <v>6</v>
       </c>
       <c r="B121" s="1">
-        <v>361</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>2</v>
+        <v>371</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D121" s="2">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="E121" s="2">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="F121" s="2">
-        <v>0.45800000000000002</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>0</v>
@@ -12183,19 +12186,19 @@
         <v>7</v>
       </c>
       <c r="B122" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D122" s="2">
         <v>-0.2</v>
       </c>
       <c r="E122" s="2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F122" s="2">
-        <v>0.29699999999999999</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>0</v>
@@ -12206,19 +12209,19 @@
         <v>8</v>
       </c>
       <c r="B123" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C123" s="2">
-        <v>-1.0999999999999999E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D123" s="2">
         <v>-0.7</v>
       </c>
       <c r="E123" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F123" s="2">
-        <v>0.29499999999999998</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>0</v>
@@ -12229,10 +12232,10 @@
         <v>9</v>
       </c>
       <c r="B124" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D124" s="2">
         <v>-0.1</v>
@@ -12241,7 +12244,7 @@
         <v>0.8</v>
       </c>
       <c r="F124" s="2">
-        <v>0.27800000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>0</v>
@@ -12252,19 +12255,19 @@
         <v>10</v>
       </c>
       <c r="B125" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C125" s="2">
-        <v>-4.9000000000000002E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="D125" s="2">
         <v>-0.5</v>
       </c>
       <c r="E125" s="2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F125" s="2">
-        <v>0.97499999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>0</v>
@@ -12275,19 +12278,19 @@
         <v>11</v>
       </c>
       <c r="B126" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C126" s="2">
-        <v>-2.4E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="D126" s="2">
         <v>-0.7</v>
       </c>
       <c r="E126" s="2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F126" s="2">
-        <v>0.88400000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>0</v>
@@ -12298,19 +12301,19 @@
         <v>12</v>
       </c>
       <c r="B127" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C127" s="2">
-        <v>-3.1E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="D127" s="2">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="E127" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F127" s="2">
-        <v>0.499</v>
+        <v>0.61</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>0</v>
@@ -12321,19 +12324,19 @@
         <v>13</v>
       </c>
       <c r="B128" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C128" s="2">
-        <v>-1.7000000000000001E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D128" s="2">
         <v>-0.7</v>
       </c>
       <c r="E128" s="2">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="F128" s="2">
-        <v>0.505</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>0</v>
@@ -12344,7 +12347,7 @@
         <v>14</v>
       </c>
       <c r="B129" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C129" s="2">
         <v>-2.7E-2</v>
@@ -12356,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="2">
-        <v>0.151</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>0</v>
@@ -12502,7 +12505,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -12515,10 +12518,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D137" s="2">
         <v>-1.7</v>
@@ -12527,7 +12530,7 @@
         <v>4.2</v>
       </c>
       <c r="F137" s="2">
-        <v>0.86399999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>0</v>
@@ -12538,10 +12541,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D138" s="2">
         <v>-1.4</v>
@@ -12561,10 +12564,10 @@
         <v>4</v>
       </c>
       <c r="B139" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -12573,7 +12576,7 @@
         <v>5.7</v>
       </c>
       <c r="F139" s="2">
-        <v>0.81899999999999995</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>0</v>
@@ -12584,10 +12587,10 @@
         <v>5</v>
       </c>
       <c r="B140" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C140" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D140" s="2">
         <v>-2.5</v>
@@ -12596,7 +12599,7 @@
         <v>2</v>
       </c>
       <c r="F140" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>0</v>
@@ -12607,19 +12610,19 @@
         <v>6</v>
       </c>
       <c r="B141" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C141" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D141" s="2">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
       <c r="E141" s="2">
         <v>1.6</v>
       </c>
       <c r="F141" s="2">
-        <v>0.39100000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>0</v>
@@ -12630,19 +12633,19 @@
         <v>7</v>
       </c>
       <c r="B142" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C142" s="2">
-        <v>1.9E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D142" s="2">
-        <v>-1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E142" s="2">
         <v>1.9</v>
       </c>
       <c r="F142" s="2">
-        <v>0.35199999999999998</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>0</v>
@@ -12653,19 +12656,19 @@
         <v>8</v>
       </c>
       <c r="B143" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C143" s="2">
-        <v>2.3E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D143" s="2">
-        <v>-1.1000000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="E143" s="2">
         <v>1.3</v>
       </c>
       <c r="F143" s="2">
-        <v>0.33300000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>0</v>
@@ -12676,19 +12679,19 @@
         <v>9</v>
       </c>
       <c r="B144" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C144" s="2">
-        <v>-7.0000000000000001E-3</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="D144" s="2">
-        <v>-1.9</v>
+        <v>-2.4</v>
       </c>
       <c r="E144" s="2">
         <v>1.5</v>
       </c>
       <c r="F144" s="2">
-        <v>0.38900000000000001</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>0</v>
@@ -12699,10 +12702,10 @@
         <v>10</v>
       </c>
       <c r="B145" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C145" s="2">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D145" s="2">
         <v>-1.7</v>
@@ -12711,7 +12714,7 @@
         <v>1.4</v>
       </c>
       <c r="F145" s="2">
-        <v>0.41899999999999998</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>0</v>
@@ -12722,19 +12725,19 @@
         <v>11</v>
       </c>
       <c r="B146" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C146" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D146" s="2">
         <v>-1.3</v>
       </c>
       <c r="E146" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F146" s="2">
-        <v>0.42399999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>0</v>
@@ -12745,10 +12748,10 @@
         <v>12</v>
       </c>
       <c r="B147" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D147" s="2">
         <v>-0.3</v>
@@ -12757,7 +12760,7 @@
         <v>1.2</v>
       </c>
       <c r="F147" s="2">
-        <v>0.443</v>
+        <v>0.43</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>0</v>
@@ -12768,19 +12771,19 @@
         <v>13</v>
       </c>
       <c r="B148" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C148" s="2">
-        <v>1.6E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D148" s="2">
         <v>-0.6</v>
       </c>
       <c r="E148" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="F148" s="2">
-        <v>0.371</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>0</v>
@@ -12791,7 +12794,7 @@
         <v>14</v>
       </c>
       <c r="B149" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C149" s="2">
         <v>-3.0000000000000001E-3</v>
@@ -12803,7 +12806,7 @@
         <v>0.4</v>
       </c>
       <c r="F149" s="2">
-        <v>0.13800000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>0</v>
@@ -12949,7 +12952,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -12962,19 +12965,19 @@
         <v>2</v>
       </c>
       <c r="B157" s="3">
-        <v>329</v>
-      </c>
-      <c r="C157" s="4">
-        <v>2.7E-2</v>
+        <v>331</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D157" s="4">
         <v>-1.2</v>
       </c>
       <c r="E157" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F157" s="4">
-        <v>0.34499999999999997</v>
+        <v>0.36</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>0</v>
@@ -12985,19 +12988,19 @@
         <v>3</v>
       </c>
       <c r="B158" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D158" s="2">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="E158" s="2">
         <v>1.2</v>
       </c>
       <c r="F158" s="2">
-        <v>0.25900000000000001</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>0</v>
@@ -13008,10 +13011,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2">
         <v>-1</v>
@@ -13020,7 +13023,7 @@
         <v>1.3</v>
       </c>
       <c r="F159" s="2">
-        <v>0.312</v>
+        <v>0.316</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>0</v>
@@ -13031,10 +13034,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="1">
-        <v>320</v>
-      </c>
-      <c r="C160" s="2">
-        <v>1.9E-2</v>
+        <v>328</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D160" s="2">
         <v>-0.5</v>
@@ -13043,7 +13046,7 @@
         <v>0.9</v>
       </c>
       <c r="F160" s="2">
-        <v>0.216</v>
+        <v>0.24</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>0</v>
@@ -13054,19 +13057,19 @@
         <v>6</v>
       </c>
       <c r="B161" s="1">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C161" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D161" s="2">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="E161" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F161" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>0</v>
@@ -13077,7 +13080,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="1">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C162" s="2">
         <v>-8.0000000000000002E-3</v>
@@ -13089,7 +13092,7 @@
         <v>0.8</v>
       </c>
       <c r="F162" s="2">
-        <v>0.32800000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>0</v>
@@ -13100,19 +13103,19 @@
         <v>8</v>
       </c>
       <c r="B163" s="1">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C163" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D163" s="2">
         <v>-1</v>
       </c>
       <c r="E163" s="2">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F163" s="2">
-        <v>0.247</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>0</v>
@@ -13123,10 +13126,10 @@
         <v>9</v>
       </c>
       <c r="B164" s="1">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C164" s="2">
-        <v>-2.1000000000000001E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D164" s="2">
         <v>-1.5</v>
@@ -13135,7 +13138,7 @@
         <v>0.6</v>
       </c>
       <c r="F164" s="2">
-        <v>0.28499999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>0</v>
@@ -13146,10 +13149,10 @@
         <v>10</v>
       </c>
       <c r="B165" s="1">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C165" s="2">
-        <v>-8.9999999999999993E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D165" s="2">
         <v>-0.9</v>
@@ -13158,7 +13161,7 @@
         <v>0.5</v>
       </c>
       <c r="F165" s="2">
-        <v>0.29499999999999998</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>0</v>
@@ -13169,19 +13172,19 @@
         <v>11</v>
       </c>
       <c r="B166" s="1">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C166" s="2">
-        <v>-2.4E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D166" s="2">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="E166" s="2">
         <v>0.4</v>
       </c>
       <c r="F166" s="2">
-        <v>0.25700000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>0</v>
@@ -13192,13 +13195,13 @@
         <v>12</v>
       </c>
       <c r="B167" s="1">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="C167" s="2">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D167" s="2">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="E167" s="2">
         <v>1.1000000000000001</v>
@@ -13215,19 +13218,19 @@
         <v>13</v>
       </c>
       <c r="B168" s="1">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C168" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D168" s="2">
-        <v>-0.8</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E168" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F168" s="2">
-        <v>0.39800000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>0</v>
@@ -13238,7 +13241,7 @@
         <v>14</v>
       </c>
       <c r="B169" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C169" s="2">
         <v>-1.4E-2</v>
@@ -13250,7 +13253,7 @@
         <v>0.4</v>
       </c>
       <c r="F169" s="2">
-        <v>0.182</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>0</v>
